--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SEQ</t>
   </si>
@@ -22,16 +22,25 @@
     <t>주소</t>
   </si>
   <si>
+    <t>매장전화번호</t>
+  </si>
+  <si>
     <t>서울-강남구-코엑스스타필드점</t>
   </si>
   <si>
     <t>서울시 강남구 영동대로 513번지 스타필드코엑스몰 B1F</t>
   </si>
   <si>
+    <t>02)558-4491</t>
+  </si>
+  <si>
     <t>서울-강남구-강남점</t>
   </si>
   <si>
     <t>서울 강남구 강남대로 502 (논현동, 서희빌딩) 2층</t>
+  </si>
+  <si>
+    <t>02)515-4791</t>
   </si>
 </sst>
 </file>
@@ -303,16 +312,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -320,20 +335,26 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="C7" s="1"/>
